--- a/Test5.xlsx
+++ b/Test5.xlsx
@@ -14174,7 +14174,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="11">
-        <f>E2+F2</f>
+        <f>SUM($E2:$G2)</f>
         <v/>
       </c>
       <c r="E2" s="11" t="n">
@@ -14199,7 +14199,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="11">
-        <f>E3+F3</f>
+        <f>SUM($E3:$G3)</f>
         <v/>
       </c>
       <c r="E3" s="11" t="n">
@@ -14224,7 +14224,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="11">
-        <f>E4+F4</f>
+        <f>SUM($E4:$G4)</f>
         <v/>
       </c>
       <c r="E4" s="11" t="n">
@@ -14249,7 +14249,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="11">
-        <f>E5+F5</f>
+        <f>SUM($E5:$G5)</f>
         <v/>
       </c>
       <c r="E5" s="11" t="n">
@@ -14274,7 +14274,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="11">
-        <f>E6+F6</f>
+        <f>SUM($E6:$G6)</f>
         <v/>
       </c>
       <c r="E6" s="11" t="n">
@@ -14299,7 +14299,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="11">
-        <f>E7+F7</f>
+        <f>SUM($E7:$G7)</f>
         <v/>
       </c>
       <c r="E7" s="11" t="n">
@@ -14324,7 +14324,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="11">
-        <f>E8+F8</f>
+        <f>SUM($E8:$G8)</f>
         <v/>
       </c>
       <c r="E8" s="11" t="n">
@@ -14349,7 +14349,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="11">
-        <f>E9+F9</f>
+        <f>SUM($E9:$G9)</f>
         <v/>
       </c>
       <c r="E9" s="11" t="n">
@@ -14374,7 +14374,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="11">
-        <f>E10+F10</f>
+        <f>SUM($E10:$G10)</f>
         <v/>
       </c>
       <c r="E10" s="11" t="n">
@@ -14399,7 +14399,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="11">
-        <f>E11+F11</f>
+        <f>SUM($E11:$G11)</f>
         <v/>
       </c>
       <c r="E11" s="11" t="n">
@@ -14424,7 +14424,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="11">
-        <f>E12+F12</f>
+        <f>SUM($E12:$G12)</f>
         <v/>
       </c>
       <c r="E12" s="11" t="n">
@@ -14449,7 +14449,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="11">
-        <f>E13+F13</f>
+        <f>SUM($E13:$G13)</f>
         <v/>
       </c>
       <c r="E13" s="11" t="n">
@@ -14474,7 +14474,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="11">
-        <f>E14+F14</f>
+        <f>SUM($E14:$G14)</f>
         <v/>
       </c>
       <c r="E14" s="11" t="n">
@@ -14499,7 +14499,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="11">
-        <f>E15+F15</f>
+        <f>SUM($E15:$G15)</f>
         <v/>
       </c>
       <c r="E15" s="11" t="n">
@@ -14524,7 +14524,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="11">
-        <f>E16+F16</f>
+        <f>SUM($E16:$G16)</f>
         <v/>
       </c>
       <c r="E16" s="11" t="n">
@@ -14549,7 +14549,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="11">
-        <f>E17+F17</f>
+        <f>SUM($E17:$G17)</f>
         <v/>
       </c>
       <c r="E17" s="11" t="n">
@@ -14574,7 +14574,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="11">
-        <f>E18+F18</f>
+        <f>SUM($E18:$G18)</f>
         <v/>
       </c>
       <c r="E18" s="11" t="n">
@@ -14599,7 +14599,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="11">
-        <f>E19+F19</f>
+        <f>SUM($E19:$G19)</f>
         <v/>
       </c>
       <c r="E19" s="11" t="n">
@@ -14624,7 +14624,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="11">
-        <f>E20+F20</f>
+        <f>SUM($E20:$G20)</f>
         <v/>
       </c>
       <c r="E20" s="11" t="n">
@@ -14649,7 +14649,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="11">
-        <f>E21+F21</f>
+        <f>SUM($E21:$G21)</f>
         <v/>
       </c>
       <c r="E21" s="11" t="n">
@@ -14674,7 +14674,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="11">
-        <f>E22+F22</f>
+        <f>SUM($E22:$G22)</f>
         <v/>
       </c>
       <c r="E22" s="11" t="n">
@@ -14699,7 +14699,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="11">
-        <f>E23+F23</f>
+        <f>SUM($E23:$G23)</f>
         <v/>
       </c>
       <c r="E23" s="11" t="n">
@@ -14724,7 +14724,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="11">
-        <f>E24+F24</f>
+        <f>SUM($E24:$G24)</f>
         <v/>
       </c>
       <c r="E24" s="11" t="n">
@@ -14749,7 +14749,7 @@
         <v>64</v>
       </c>
       <c r="D25" s="11">
-        <f>E25+F25</f>
+        <f>SUM($E25:$G25)</f>
         <v/>
       </c>
       <c r="E25" s="11" t="n">
@@ -14774,7 +14774,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="11">
-        <f>E26+F26</f>
+        <f>SUM($E26:$G26)</f>
         <v/>
       </c>
       <c r="E26" s="11" t="n">
@@ -14799,7 +14799,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="11">
-        <f>E27+F27</f>
+        <f>SUM($E27:$G27)</f>
         <v/>
       </c>
       <c r="E27" s="11" t="n">
@@ -14824,7 +14824,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="11">
-        <f>E28+F28</f>
+        <f>SUM($E28:$G28)</f>
         <v/>
       </c>
       <c r="E28" s="11" t="n">
@@ -14849,7 +14849,7 @@
         <v>72</v>
       </c>
       <c r="D29" s="11">
-        <f>E29+F29</f>
+        <f>SUM($E29:$G29)</f>
         <v/>
       </c>
       <c r="E29" s="11" t="n">
@@ -14874,7 +14874,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="11">
-        <f>E30+F30</f>
+        <f>SUM($E30:$G30)</f>
         <v/>
       </c>
       <c r="E30" s="11" t="n">
@@ -14899,7 +14899,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="11">
-        <f>E31+F31</f>
+        <f>SUM($E31:$G31)</f>
         <v/>
       </c>
       <c r="E31" s="11" t="n">
@@ -14924,7 +14924,7 @@
         <v>78</v>
       </c>
       <c r="D32" s="11">
-        <f>E32+F32</f>
+        <f>SUM($E32:$G32)</f>
         <v/>
       </c>
       <c r="E32" s="11" t="n">
@@ -14949,7 +14949,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="11">
-        <f>E33+F33</f>
+        <f>SUM($E33:$G33)</f>
         <v/>
       </c>
       <c r="E33" s="11" t="n">
@@ -14974,7 +14974,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="11">
-        <f>E34+F34</f>
+        <f>SUM($E34:$G34)</f>
         <v/>
       </c>
       <c r="E34" s="11" t="n">
@@ -14999,7 +14999,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="11">
-        <f>E35+F35</f>
+        <f>SUM($E35:$G35)</f>
         <v/>
       </c>
       <c r="E35" s="11" t="n">
@@ -15024,7 +15024,7 @@
         <v>86</v>
       </c>
       <c r="D36" s="11">
-        <f>E36+F36</f>
+        <f>SUM($E36:$G36)</f>
         <v/>
       </c>
       <c r="E36" s="11" t="n">
@@ -15049,7 +15049,7 @@
         <v>88</v>
       </c>
       <c r="D37" s="11">
-        <f>E37+F37</f>
+        <f>SUM($E37:$G37)</f>
         <v/>
       </c>
       <c r="E37" s="11" t="n">
@@ -15074,7 +15074,7 @@
         <v>90</v>
       </c>
       <c r="D38" s="11">
-        <f>E38+F38</f>
+        <f>SUM($E38:$G38)</f>
         <v/>
       </c>
       <c r="E38" s="11" t="n">
@@ -15099,7 +15099,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="11">
-        <f>E39+F39</f>
+        <f>SUM($E39:$G39)</f>
         <v/>
       </c>
       <c r="E39" s="11" t="n">
@@ -15124,7 +15124,7 @@
         <v>94</v>
       </c>
       <c r="D40" s="11">
-        <f>E40+F40</f>
+        <f>SUM($E40:$G40)</f>
         <v/>
       </c>
       <c r="E40" s="11" t="n">
@@ -15149,7 +15149,7 @@
         <v>96</v>
       </c>
       <c r="D41" s="11">
-        <f>E41+F41</f>
+        <f>SUM($E41:$G41)</f>
         <v/>
       </c>
       <c r="E41" s="11" t="n">
@@ -15174,7 +15174,7 @@
         <v>98</v>
       </c>
       <c r="D42" s="11">
-        <f>E42+F42</f>
+        <f>SUM($E42:$G42)</f>
         <v/>
       </c>
       <c r="E42" s="11" t="n">
@@ -15199,7 +15199,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="11">
-        <f>E43+F43</f>
+        <f>SUM($E43:$G43)</f>
         <v/>
       </c>
       <c r="E43" s="11" t="n">
@@ -15224,7 +15224,7 @@
         <v>102</v>
       </c>
       <c r="D44" s="11">
-        <f>E44+F44</f>
+        <f>SUM($E44:$G44)</f>
         <v/>
       </c>
       <c r="E44" s="11" t="n">
@@ -15249,7 +15249,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="11">
-        <f>E45+F45</f>
+        <f>SUM($E45:$G45)</f>
         <v/>
       </c>
       <c r="E45" s="11" t="n">
@@ -15274,7 +15274,7 @@
         <v>106</v>
       </c>
       <c r="D46" s="11">
-        <f>E46+F46</f>
+        <f>SUM($E46:$G46)</f>
         <v/>
       </c>
       <c r="E46" s="11" t="n">
@@ -15299,7 +15299,7 @@
         <v>108</v>
       </c>
       <c r="D47" s="11">
-        <f>E47+F47</f>
+        <f>SUM($E47:$G47)</f>
         <v/>
       </c>
       <c r="E47" s="11" t="n">
@@ -15324,7 +15324,7 @@
         <v>110</v>
       </c>
       <c r="D48" s="11">
-        <f>E48+F48</f>
+        <f>SUM($E48:$G48)</f>
         <v/>
       </c>
       <c r="E48" s="11" t="n">
@@ -15349,7 +15349,7 @@
         <v>112</v>
       </c>
       <c r="D49" s="11">
-        <f>E49+F49</f>
+        <f>SUM($E49:$G49)</f>
         <v/>
       </c>
       <c r="E49" s="11" t="n">
@@ -15374,7 +15374,7 @@
         <v>114</v>
       </c>
       <c r="D50" s="11">
-        <f>E50+F50</f>
+        <f>SUM($E50:$G50)</f>
         <v/>
       </c>
       <c r="E50" s="11" t="n">
@@ -15399,7 +15399,7 @@
         <v>116</v>
       </c>
       <c r="D51" s="11">
-        <f>E51+F51</f>
+        <f>SUM($E51:$G51)</f>
         <v/>
       </c>
       <c r="E51" s="11" t="n">
@@ -15424,7 +15424,7 @@
         <v>118</v>
       </c>
       <c r="D52" s="11">
-        <f>E52+F52</f>
+        <f>SUM($E52:$G52)</f>
         <v/>
       </c>
       <c r="E52" s="11" t="n">
@@ -15449,7 +15449,7 @@
         <v>120</v>
       </c>
       <c r="D53" s="11">
-        <f>E53+F53</f>
+        <f>SUM($E53:$G53)</f>
         <v/>
       </c>
       <c r="E53" s="11" t="n">
@@ -15474,7 +15474,7 @@
         <v>122</v>
       </c>
       <c r="D54" s="11">
-        <f>E54+F54</f>
+        <f>SUM($E54:$G54)</f>
         <v/>
       </c>
       <c r="E54" s="11" t="n">
@@ -15499,7 +15499,7 @@
         <v>124</v>
       </c>
       <c r="D55" s="11">
-        <f>E55+F55</f>
+        <f>SUM($E55:$G55)</f>
         <v/>
       </c>
       <c r="E55" s="11" t="n">
@@ -15524,7 +15524,7 @@
         <v>126</v>
       </c>
       <c r="D56" s="11">
-        <f>E56+F56</f>
+        <f>SUM($E56:$G56)</f>
         <v/>
       </c>
       <c r="E56" s="11" t="n">
@@ -15549,7 +15549,7 @@
         <v>128</v>
       </c>
       <c r="D57" s="11">
-        <f>E57+F57</f>
+        <f>SUM($E57:$G57)</f>
         <v/>
       </c>
       <c r="E57" s="11" t="n">
@@ -15574,7 +15574,7 @@
         <v>130</v>
       </c>
       <c r="D58" s="11">
-        <f>E58+F58</f>
+        <f>SUM($E58:$G58)</f>
         <v/>
       </c>
       <c r="E58" s="11" t="n">
@@ -15599,7 +15599,7 @@
         <v>132</v>
       </c>
       <c r="D59" s="11">
-        <f>E59+F59</f>
+        <f>SUM($E59:$G59)</f>
         <v/>
       </c>
       <c r="E59" s="11" t="n">
@@ -15624,7 +15624,7 @@
         <v>134</v>
       </c>
       <c r="D60" s="11">
-        <f>E60+F60</f>
+        <f>SUM($E60:$G60)</f>
         <v/>
       </c>
       <c r="E60" s="11" t="n">
@@ -15649,7 +15649,7 @@
         <v>136</v>
       </c>
       <c r="D61" s="11">
-        <f>E61+F61</f>
+        <f>SUM($E61:$G61)</f>
         <v/>
       </c>
       <c r="E61" s="11" t="n">
@@ -15672,7 +15672,7 @@
         <v>137</v>
       </c>
       <c r="D62" s="11">
-        <f>E62+F62</f>
+        <f>SUM($E62:$G62)</f>
         <v/>
       </c>
       <c r="E62" s="11" t="n">
@@ -15697,7 +15697,7 @@
         <v>139</v>
       </c>
       <c r="D63" s="11">
-        <f>E63+F63</f>
+        <f>SUM($E63:$G63)</f>
         <v/>
       </c>
       <c r="E63" s="11" t="n">
@@ -15722,7 +15722,7 @@
         <v>141</v>
       </c>
       <c r="D64" s="11">
-        <f>E64+F64</f>
+        <f>SUM($E64:$G64)</f>
         <v/>
       </c>
       <c r="E64" s="11" t="n">
@@ -15747,7 +15747,7 @@
         <v>143</v>
       </c>
       <c r="D65" s="11">
-        <f>E65+F65</f>
+        <f>SUM($E65:$G65)</f>
         <v/>
       </c>
       <c r="E65" s="11" t="n">
@@ -15772,7 +15772,7 @@
         <v>145</v>
       </c>
       <c r="D66" s="11">
-        <f>E66+F66</f>
+        <f>SUM($E66:$G66)</f>
         <v/>
       </c>
       <c r="E66" s="11" t="n">
@@ -15797,7 +15797,7 @@
         <v>147</v>
       </c>
       <c r="D67" s="11">
-        <f>E67+F67</f>
+        <f>SUM($E67:$G67)</f>
         <v/>
       </c>
       <c r="E67" s="11" t="n">
@@ -15822,7 +15822,7 @@
         <v>149</v>
       </c>
       <c r="D68" s="11">
-        <f>E68+F68</f>
+        <f>SUM($E68:$G68)</f>
         <v/>
       </c>
       <c r="E68" s="11" t="n">
@@ -15847,7 +15847,7 @@
         <v>151</v>
       </c>
       <c r="D69" s="11">
-        <f>E69+F69</f>
+        <f>SUM($E69:$G69)</f>
         <v/>
       </c>
       <c r="E69" s="11" t="n">
@@ -15872,7 +15872,7 @@
         <v>152</v>
       </c>
       <c r="D70" s="11">
-        <f>E70+F70</f>
+        <f>SUM($E70:$G70)</f>
         <v/>
       </c>
       <c r="E70" s="11" t="n">
@@ -15897,7 +15897,7 @@
         <v>154</v>
       </c>
       <c r="D71" s="11">
-        <f>E71+F71</f>
+        <f>SUM($E71:$G71)</f>
         <v/>
       </c>
       <c r="E71" s="11" t="n">
@@ -15922,7 +15922,7 @@
         <v>156</v>
       </c>
       <c r="D72" s="11">
-        <f>E72+F72</f>
+        <f>SUM($E72:$G72)</f>
         <v/>
       </c>
       <c r="E72" s="11" t="n">
@@ -15947,7 +15947,7 @@
         <v>158</v>
       </c>
       <c r="D73" s="11">
-        <f>E73+F73</f>
+        <f>SUM($E73:$G73)</f>
         <v/>
       </c>
       <c r="E73" s="11" t="n">
@@ -15972,7 +15972,7 @@
         <v>160</v>
       </c>
       <c r="D74" s="11">
-        <f>E74+F74</f>
+        <f>SUM($E74:$G74)</f>
         <v/>
       </c>
       <c r="E74" s="11" t="n">
@@ -15997,7 +15997,7 @@
         <v>162</v>
       </c>
       <c r="D75" s="11">
-        <f>E75+F75</f>
+        <f>SUM($E75:$G75)</f>
         <v/>
       </c>
       <c r="E75" s="11" t="n">
@@ -16022,7 +16022,7 @@
         <v>164</v>
       </c>
       <c r="D76" s="11">
-        <f>E76+F76</f>
+        <f>SUM($E76:$G76)</f>
         <v/>
       </c>
       <c r="E76" s="11" t="n">
@@ -16047,7 +16047,7 @@
         <v>166</v>
       </c>
       <c r="D77" s="11">
-        <f>E77+F77</f>
+        <f>SUM($E77:$G77)</f>
         <v/>
       </c>
       <c r="E77" s="11" t="n">
@@ -16072,7 +16072,7 @@
         <v>168</v>
       </c>
       <c r="D78" s="11">
-        <f>E78+F78</f>
+        <f>SUM($E78:$G78)</f>
         <v/>
       </c>
       <c r="E78" s="11" t="n">
@@ -16097,7 +16097,7 @@
         <v>170</v>
       </c>
       <c r="D79" s="11">
-        <f>E79+F79</f>
+        <f>SUM($E79:$G79)</f>
         <v/>
       </c>
       <c r="E79" s="11" t="n">
@@ -16122,7 +16122,7 @@
         <v>172</v>
       </c>
       <c r="D80" s="11">
-        <f>E80+F80</f>
+        <f>SUM($E80:$G80)</f>
         <v/>
       </c>
       <c r="E80" s="11" t="n">
@@ -16147,7 +16147,7 @@
         <v>174</v>
       </c>
       <c r="D81" s="11">
-        <f>E81+F81</f>
+        <f>SUM($E81:$G81)</f>
         <v/>
       </c>
       <c r="E81" s="11" t="n">
@@ -16172,7 +16172,7 @@
         <v>176</v>
       </c>
       <c r="D82" s="11">
-        <f>E82+F82</f>
+        <f>SUM($E82:$G82)</f>
         <v/>
       </c>
       <c r="E82" s="11" t="n">
@@ -16197,7 +16197,7 @@
         <v>178</v>
       </c>
       <c r="D83" s="11">
-        <f>E83+F83</f>
+        <f>SUM($E83:$G83)</f>
         <v/>
       </c>
       <c r="E83" s="11" t="n">
@@ -16222,7 +16222,7 @@
         <v>180</v>
       </c>
       <c r="D84" s="11">
-        <f>E84+F84</f>
+        <f>SUM($E84:$G84)</f>
         <v/>
       </c>
       <c r="E84" s="11" t="n">
@@ -16247,7 +16247,7 @@
         <v>182</v>
       </c>
       <c r="D85" s="11">
-        <f>E85+F85</f>
+        <f>SUM($E85:$G85)</f>
         <v/>
       </c>
       <c r="E85" s="11" t="n">
@@ -16272,7 +16272,7 @@
         <v>184</v>
       </c>
       <c r="D86" s="11">
-        <f>E86+F86</f>
+        <f>SUM($E86:$G86)</f>
         <v/>
       </c>
       <c r="E86" s="11" t="n">
@@ -16297,7 +16297,7 @@
         <v>186</v>
       </c>
       <c r="D87" s="11">
-        <f>E87+F87</f>
+        <f>SUM($E87:$G87)</f>
         <v/>
       </c>
       <c r="E87" s="11" t="n">
@@ -16322,7 +16322,7 @@
         <v>188</v>
       </c>
       <c r="D88" s="11">
-        <f>E88+F88</f>
+        <f>SUM($E88:$G88)</f>
         <v/>
       </c>
       <c r="E88" s="11" t="n">
@@ -16347,7 +16347,7 @@
         <v>190</v>
       </c>
       <c r="D89" s="11">
-        <f>E89+F89</f>
+        <f>SUM($E89:$G89)</f>
         <v/>
       </c>
       <c r="E89" s="11" t="n">
@@ -16372,7 +16372,7 @@
         <v>192</v>
       </c>
       <c r="D90" s="11">
-        <f>E90+F90</f>
+        <f>SUM($E90:$G90)</f>
         <v/>
       </c>
       <c r="E90" s="11" t="n">
@@ -16397,7 +16397,7 @@
         <v>194</v>
       </c>
       <c r="D91" s="11">
-        <f>E91+F91</f>
+        <f>SUM($E91:$G91)</f>
         <v/>
       </c>
       <c r="E91" s="11" t="n">
@@ -16422,7 +16422,7 @@
         <v>196</v>
       </c>
       <c r="D92" s="11">
-        <f>E92+F92</f>
+        <f>SUM($E92:$G92)</f>
         <v/>
       </c>
       <c r="E92" s="11" t="n">
@@ -16447,7 +16447,7 @@
         <v>198</v>
       </c>
       <c r="D93" s="11">
-        <f>E93+F93</f>
+        <f>SUM($E93:$G93)</f>
         <v/>
       </c>
       <c r="E93" s="11" t="n">
@@ -16472,7 +16472,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="11">
-        <f>E94+F94</f>
+        <f>SUM($E94:$G94)</f>
         <v/>
       </c>
       <c r="E94" s="11" t="n">
@@ -16497,7 +16497,7 @@
         <v>202</v>
       </c>
       <c r="D95" s="11">
-        <f>E95+F95</f>
+        <f>SUM($E95:$G95)</f>
         <v/>
       </c>
       <c r="E95" s="11" t="n">
@@ -16522,7 +16522,7 @@
         <v>204</v>
       </c>
       <c r="D96" s="11">
-        <f>E96+F96</f>
+        <f>SUM($E96:$G96)</f>
         <v/>
       </c>
       <c r="E96" s="11" t="n">
@@ -16547,7 +16547,7 @@
         <v>206</v>
       </c>
       <c r="D97" s="11">
-        <f>E97+F97</f>
+        <f>SUM($E97:$G97)</f>
         <v/>
       </c>
       <c r="E97" s="11" t="n">
@@ -16572,7 +16572,7 @@
         <v>208</v>
       </c>
       <c r="D98" s="11">
-        <f>E98+F98</f>
+        <f>SUM($E98:$G98)</f>
         <v/>
       </c>
       <c r="E98" s="11" t="n">
@@ -16597,7 +16597,7 @@
         <v>210</v>
       </c>
       <c r="D99" s="11">
-        <f>E99+F99</f>
+        <f>SUM($E99:$G99)</f>
         <v/>
       </c>
       <c r="E99" s="11" t="n">
@@ -16622,7 +16622,7 @@
         <v>212</v>
       </c>
       <c r="D100" s="11">
-        <f>E100+F100</f>
+        <f>SUM($E100:$G100)</f>
         <v/>
       </c>
       <c r="E100" s="11" t="n">
@@ -16647,7 +16647,7 @@
         <v>214</v>
       </c>
       <c r="D101" s="11">
-        <f>E101+F101</f>
+        <f>SUM($E101:$G101)</f>
         <v/>
       </c>
       <c r="E101" s="11" t="n">
@@ -16672,7 +16672,7 @@
         <v>216</v>
       </c>
       <c r="D102" s="11">
-        <f>E102+F102</f>
+        <f>SUM($E102:$G102)</f>
         <v/>
       </c>
       <c r="E102" s="11" t="n">
@@ -16697,7 +16697,7 @@
         <v>218</v>
       </c>
       <c r="D103" s="11">
-        <f>E103+F103</f>
+        <f>SUM($E103:$G103)</f>
         <v/>
       </c>
       <c r="E103" s="11" t="n">
@@ -16722,7 +16722,7 @@
         <v>220</v>
       </c>
       <c r="D104" s="11">
-        <f>E104+F104</f>
+        <f>SUM($E104:$G104)</f>
         <v/>
       </c>
       <c r="E104" s="11" t="n">
@@ -16747,7 +16747,7 @@
         <v>222</v>
       </c>
       <c r="D105" s="11">
-        <f>E105+F105</f>
+        <f>SUM($E105:$G105)</f>
         <v/>
       </c>
       <c r="E105" s="11" t="n">
@@ -16772,7 +16772,7 @@
         <v>224</v>
       </c>
       <c r="D106" s="11">
-        <f>E106+F106</f>
+        <f>SUM($E106:$G106)</f>
         <v/>
       </c>
       <c r="E106" s="11" t="n">
@@ -16797,7 +16797,7 @@
         <v>226</v>
       </c>
       <c r="D107" s="11">
-        <f>E107+F107</f>
+        <f>SUM($E107:$G107)</f>
         <v/>
       </c>
       <c r="E107" s="11" t="n">
@@ -16822,7 +16822,7 @@
         <v>228</v>
       </c>
       <c r="D108" s="11">
-        <f>E108+F108</f>
+        <f>SUM($E108:$G108)</f>
         <v/>
       </c>
       <c r="E108" s="11" t="n">
@@ -16847,7 +16847,7 @@
         <v>230</v>
       </c>
       <c r="D109" s="11">
-        <f>E109+F109</f>
+        <f>SUM($E109:$G109)</f>
         <v/>
       </c>
       <c r="E109" s="11" t="n">
@@ -16872,7 +16872,7 @@
         <v>232</v>
       </c>
       <c r="D110" s="11">
-        <f>E110+F110</f>
+        <f>SUM($E110:$G110)</f>
         <v/>
       </c>
       <c r="E110" s="11" t="n">
@@ -16897,7 +16897,7 @@
         <v>234</v>
       </c>
       <c r="D111" s="11">
-        <f>E111+F111</f>
+        <f>SUM($E111:$G111)</f>
         <v/>
       </c>
       <c r="E111" s="11" t="n">
@@ -16922,7 +16922,7 @@
         <v>236</v>
       </c>
       <c r="D112" s="11">
-        <f>E112+F112</f>
+        <f>SUM($E112:$G112)</f>
         <v/>
       </c>
       <c r="E112" s="11" t="n">
@@ -16947,7 +16947,7 @@
         <v>238</v>
       </c>
       <c r="D113" s="11">
-        <f>E113+F113</f>
+        <f>SUM($E113:$G113)</f>
         <v/>
       </c>
       <c r="E113" s="11" t="n">
@@ -16972,7 +16972,7 @@
         <v>240</v>
       </c>
       <c r="D114" s="11">
-        <f>E114+F114</f>
+        <f>SUM($E114:$G114)</f>
         <v/>
       </c>
       <c r="E114" s="11" t="n">
@@ -16997,7 +16997,7 @@
         <v>242</v>
       </c>
       <c r="D115" s="11">
-        <f>E115+F115</f>
+        <f>SUM($E115:$G115)</f>
         <v/>
       </c>
       <c r="E115" s="11" t="n">
@@ -17022,7 +17022,7 @@
         <v>244</v>
       </c>
       <c r="D116" s="11">
-        <f>E116+F116</f>
+        <f>SUM($E116:$G116)</f>
         <v/>
       </c>
       <c r="E116" s="11" t="n">
@@ -17047,7 +17047,7 @@
         <v>246</v>
       </c>
       <c r="D117" s="11">
-        <f>E117+F117</f>
+        <f>SUM($E117:$G117)</f>
         <v/>
       </c>
       <c r="E117" s="11" t="n">
@@ -17072,7 +17072,7 @@
         <v>248</v>
       </c>
       <c r="D118" s="11">
-        <f>E118+F118</f>
+        <f>SUM($E118:$G118)</f>
         <v/>
       </c>
       <c r="E118" s="11" t="n">
@@ -17097,7 +17097,7 @@
         <v>250</v>
       </c>
       <c r="D119" s="11">
-        <f>E119+F119</f>
+        <f>SUM($E119:$G119)</f>
         <v/>
       </c>
       <c r="E119" s="11" t="n">
@@ -17122,7 +17122,7 @@
         <v>252</v>
       </c>
       <c r="D120" s="11">
-        <f>E120+F120</f>
+        <f>SUM($E120:$G120)</f>
         <v/>
       </c>
       <c r="E120" s="11" t="n">
@@ -17147,7 +17147,7 @@
         <v>254</v>
       </c>
       <c r="D121" s="11">
-        <f>E121+F121</f>
+        <f>SUM($E121:$G121)</f>
         <v/>
       </c>
       <c r="E121" s="11" t="n">
@@ -17172,7 +17172,7 @@
         <v>256</v>
       </c>
       <c r="D122" s="11">
-        <f>E122+F122</f>
+        <f>SUM($E122:$G122)</f>
         <v/>
       </c>
       <c r="E122" s="11" t="n">
@@ -17197,7 +17197,7 @@
         <v>258</v>
       </c>
       <c r="D123" s="11">
-        <f>E123+F123</f>
+        <f>SUM($E123:$G123)</f>
         <v/>
       </c>
       <c r="E123" s="11" t="n">
@@ -17222,7 +17222,7 @@
         <v>260</v>
       </c>
       <c r="D124" s="11">
-        <f>E124+F124</f>
+        <f>SUM($E124:$G124)</f>
         <v/>
       </c>
       <c r="E124" s="11" t="n">
@@ -17247,7 +17247,7 @@
         <v>262</v>
       </c>
       <c r="D125" s="11">
-        <f>E125+F125</f>
+        <f>SUM($E125:$G125)</f>
         <v/>
       </c>
       <c r="E125" s="11" t="n">
@@ -17272,7 +17272,7 @@
         <v>264</v>
       </c>
       <c r="D126" s="11">
-        <f>E126+F126</f>
+        <f>SUM($E126:$G126)</f>
         <v/>
       </c>
       <c r="E126" s="11" t="n">
@@ -17297,7 +17297,7 @@
         <v>266</v>
       </c>
       <c r="D127" s="11">
-        <f>E127+F127</f>
+        <f>SUM($E127:$G127)</f>
         <v/>
       </c>
       <c r="E127" s="11" t="n">
@@ -17322,7 +17322,7 @@
         <v>268</v>
       </c>
       <c r="D128" s="11">
-        <f>E128+F128</f>
+        <f>SUM($E128:$G128)</f>
         <v/>
       </c>
       <c r="E128" s="11" t="n">
@@ -17347,7 +17347,7 @@
         <v>270</v>
       </c>
       <c r="D129" s="11">
-        <f>E129+F129</f>
+        <f>SUM($E129:$G129)</f>
         <v/>
       </c>
       <c r="E129" s="11" t="n">
@@ -17372,7 +17372,7 @@
         <v>272</v>
       </c>
       <c r="D130" s="11">
-        <f>E130+F130</f>
+        <f>SUM($E130:$G130)</f>
         <v/>
       </c>
       <c r="E130" s="11" t="n">
@@ -17397,7 +17397,7 @@
         <v>274</v>
       </c>
       <c r="D131" s="11">
-        <f>E131+F131</f>
+        <f>SUM($E131:$G131)</f>
         <v/>
       </c>
       <c r="E131" s="11" t="n">
@@ -17422,7 +17422,7 @@
         <v>276</v>
       </c>
       <c r="D132" s="11">
-        <f>E132+F132</f>
+        <f>SUM($E132:$G132)</f>
         <v/>
       </c>
       <c r="E132" s="11" t="n">
@@ -17447,7 +17447,7 @@
         <v>278</v>
       </c>
       <c r="D133" s="11">
-        <f>E133+F133</f>
+        <f>SUM($E133:$G133)</f>
         <v/>
       </c>
       <c r="E133" s="11" t="n">
@@ -17472,7 +17472,7 @@
         <v>280</v>
       </c>
       <c r="D134" s="11">
-        <f>E134+F134</f>
+        <f>SUM($E134:$G134)</f>
         <v/>
       </c>
       <c r="E134" s="11" t="n">
@@ -17497,7 +17497,7 @@
         <v>282</v>
       </c>
       <c r="D135" s="11">
-        <f>E135+F135</f>
+        <f>SUM($E135:$G135)</f>
         <v/>
       </c>
       <c r="E135" s="11" t="n">
@@ -17522,7 +17522,7 @@
         <v>284</v>
       </c>
       <c r="D136" s="11">
-        <f>E136+F136</f>
+        <f>SUM($E136:$G136)</f>
         <v/>
       </c>
       <c r="E136" s="11" t="n">
@@ -17547,7 +17547,7 @@
         <v>286</v>
       </c>
       <c r="D137" s="11">
-        <f>E137+F137</f>
+        <f>SUM($E137:$G137)</f>
         <v/>
       </c>
       <c r="E137" s="11" t="n">
@@ -17572,7 +17572,7 @@
         <v>288</v>
       </c>
       <c r="D138" s="11">
-        <f>E138+F138</f>
+        <f>SUM($E138:$G138)</f>
         <v/>
       </c>
       <c r="E138" s="11" t="n">
@@ -17597,7 +17597,7 @@
         <v>290</v>
       </c>
       <c r="D139" s="11">
-        <f>E139+F139</f>
+        <f>SUM($E139:$G139)</f>
         <v/>
       </c>
       <c r="E139" s="11" t="n">
@@ -17622,7 +17622,7 @@
         <v>292</v>
       </c>
       <c r="D140" s="11">
-        <f>E140+F140</f>
+        <f>SUM($E140:$G140)</f>
         <v/>
       </c>
       <c r="E140" s="11" t="n">
@@ -17647,7 +17647,7 @@
         <v>294</v>
       </c>
       <c r="D141" s="11">
-        <f>E141+F141</f>
+        <f>SUM($E141:$G141)</f>
         <v/>
       </c>
       <c r="E141" s="11" t="n">
@@ -17672,7 +17672,7 @@
         <v>296</v>
       </c>
       <c r="D142" s="11">
-        <f>E142+F142</f>
+        <f>SUM($E142:$G142)</f>
         <v/>
       </c>
       <c r="E142" s="11" t="n">
@@ -17697,7 +17697,7 @@
         <v>298</v>
       </c>
       <c r="D143" s="11">
-        <f>E143+F143</f>
+        <f>SUM($E143:$G143)</f>
         <v/>
       </c>
       <c r="E143" s="11" t="n">
@@ -17722,7 +17722,7 @@
         <v>300</v>
       </c>
       <c r="D144" s="11">
-        <f>E144+F144</f>
+        <f>SUM($E144:$G144)</f>
         <v/>
       </c>
       <c r="E144" s="11" t="n">
@@ -17747,7 +17747,7 @@
         <v>302</v>
       </c>
       <c r="D145" s="11">
-        <f>E145+F145</f>
+        <f>SUM($E145:$G145)</f>
         <v/>
       </c>
       <c r="E145" s="11" t="n">
@@ -17772,7 +17772,7 @@
         <v>304</v>
       </c>
       <c r="D146" s="11">
-        <f>E146+F146</f>
+        <f>SUM($E146:$G146)</f>
         <v/>
       </c>
       <c r="E146" s="11" t="n">
@@ -17797,7 +17797,7 @@
         <v>306</v>
       </c>
       <c r="D147" s="11">
-        <f>E147+F147</f>
+        <f>SUM($E147:$G147)</f>
         <v/>
       </c>
       <c r="E147" s="11" t="n">
@@ -17822,7 +17822,7 @@
         <v>308</v>
       </c>
       <c r="D148" s="11">
-        <f>E148+F148</f>
+        <f>SUM($E148:$G148)</f>
         <v/>
       </c>
       <c r="E148" s="11" t="n">
@@ -17847,7 +17847,7 @@
         <v>310</v>
       </c>
       <c r="D149" s="11">
-        <f>E149+F149</f>
+        <f>SUM($E149:$G149)</f>
         <v/>
       </c>
       <c r="E149" s="11" t="n">
@@ -17872,7 +17872,7 @@
         <v>312</v>
       </c>
       <c r="D150" s="11">
-        <f>E150+F150</f>
+        <f>SUM($E150:$G150)</f>
         <v/>
       </c>
       <c r="E150" s="11" t="n">
@@ -17897,7 +17897,7 @@
         <v>314</v>
       </c>
       <c r="D151" s="11">
-        <f>E151+F151</f>
+        <f>SUM($E151:$G151)</f>
         <v/>
       </c>
       <c r="E151" s="11" t="n">
@@ -17922,7 +17922,7 @@
         <v>316</v>
       </c>
       <c r="D152" s="11">
-        <f>E152+F152</f>
+        <f>SUM($E152:$G152)</f>
         <v/>
       </c>
       <c r="E152" s="11" t="n">
@@ -17947,7 +17947,7 @@
         <v>318</v>
       </c>
       <c r="D153" s="11">
-        <f>E153+F153</f>
+        <f>SUM($E153:$G153)</f>
         <v/>
       </c>
       <c r="E153" s="11" t="n">
@@ -17972,7 +17972,7 @@
         <v>320</v>
       </c>
       <c r="D154" s="11">
-        <f>E154+F154</f>
+        <f>SUM($E154:$G154)</f>
         <v/>
       </c>
       <c r="E154" s="11" t="n">
@@ -17997,7 +17997,7 @@
         <v>322</v>
       </c>
       <c r="D155" s="11">
-        <f>E155+F155</f>
+        <f>SUM($E155:$G155)</f>
         <v/>
       </c>
       <c r="E155" s="11" t="n">
@@ -18022,7 +18022,7 @@
         <v>324</v>
       </c>
       <c r="D156" s="11">
-        <f>E156+F156</f>
+        <f>SUM($E156:$G156)</f>
         <v/>
       </c>
       <c r="E156" s="11" t="n">
@@ -18047,7 +18047,7 @@
         <v>326</v>
       </c>
       <c r="D157" s="11">
-        <f>E157+F157</f>
+        <f>SUM($E157:$G157)</f>
         <v/>
       </c>
       <c r="E157" s="11" t="n">
@@ -18072,7 +18072,7 @@
         <v>328</v>
       </c>
       <c r="D158" s="11">
-        <f>E158+F158</f>
+        <f>SUM($E158:$G158)</f>
         <v/>
       </c>
       <c r="E158" s="11" t="n">
@@ -18097,7 +18097,7 @@
         <v>330</v>
       </c>
       <c r="D159" s="11">
-        <f>E159+F159</f>
+        <f>SUM($E159:$G159)</f>
         <v/>
       </c>
       <c r="E159" s="11" t="n">
@@ -18122,7 +18122,7 @@
         <v>332</v>
       </c>
       <c r="D160" s="11">
-        <f>E160+F160</f>
+        <f>SUM($E160:$G160)</f>
         <v/>
       </c>
       <c r="E160" s="11" t="n">
@@ -18147,7 +18147,7 @@
         <v>334</v>
       </c>
       <c r="D161" s="11">
-        <f>E161+F161</f>
+        <f>SUM($E161:$G161)</f>
         <v/>
       </c>
       <c r="E161" s="11" t="n">
@@ -18172,7 +18172,7 @@
         <v>336</v>
       </c>
       <c r="D162" s="11">
-        <f>E162+F162</f>
+        <f>SUM($E162:$G162)</f>
         <v/>
       </c>
       <c r="E162" s="11" t="n">
@@ -18197,7 +18197,7 @@
         <v>338</v>
       </c>
       <c r="D163" s="11">
-        <f>E163+F163</f>
+        <f>SUM($E163:$G163)</f>
         <v/>
       </c>
       <c r="E163" s="11" t="n">
@@ -18222,7 +18222,7 @@
         <v>340</v>
       </c>
       <c r="D164" s="11">
-        <f>E164+F164</f>
+        <f>SUM($E164:$G164)</f>
         <v/>
       </c>
       <c r="E164" s="11" t="n">
@@ -18247,7 +18247,7 @@
         <v>342</v>
       </c>
       <c r="D165" s="11">
-        <f>E165+F165</f>
+        <f>SUM($E165:$G165)</f>
         <v/>
       </c>
       <c r="E165" s="11" t="n">
@@ -18272,7 +18272,7 @@
         <v>344</v>
       </c>
       <c r="D166" s="11">
-        <f>E166+F166</f>
+        <f>SUM($E166:$G166)</f>
         <v/>
       </c>
       <c r="E166" s="11" t="n">
@@ -18297,7 +18297,7 @@
         <v>346</v>
       </c>
       <c r="D167" s="11">
-        <f>E167+F167</f>
+        <f>SUM($E167:$G167)</f>
         <v/>
       </c>
       <c r="E167" s="11" t="n">
@@ -18322,7 +18322,7 @@
         <v>348</v>
       </c>
       <c r="D168" s="11">
-        <f>E168+F168</f>
+        <f>SUM($E168:$G168)</f>
         <v/>
       </c>
       <c r="E168" s="11" t="n">
@@ -18347,7 +18347,7 @@
         <v>350</v>
       </c>
       <c r="D169" s="11">
-        <f>E169+F169</f>
+        <f>SUM($E169:$G169)</f>
         <v/>
       </c>
       <c r="E169" s="11" t="n">
@@ -18372,7 +18372,7 @@
         <v>352</v>
       </c>
       <c r="D170" s="11">
-        <f>E170+F170</f>
+        <f>SUM($E170:$G170)</f>
         <v/>
       </c>
       <c r="E170" s="11" t="n">
@@ -18397,7 +18397,7 @@
         <v>354</v>
       </c>
       <c r="D171" s="11">
-        <f>E171+F171</f>
+        <f>SUM($E171:$G171)</f>
         <v/>
       </c>
       <c r="E171" s="11" t="n">
@@ -18422,7 +18422,7 @@
         <v>356</v>
       </c>
       <c r="D172" s="11">
-        <f>E172+F172</f>
+        <f>SUM($E172:$G172)</f>
         <v/>
       </c>
       <c r="E172" s="11" t="n">
@@ -18447,7 +18447,7 @@
         <v>358</v>
       </c>
       <c r="D173" s="11">
-        <f>E173+F173</f>
+        <f>SUM($E173:$G173)</f>
         <v/>
       </c>
       <c r="E173" s="11" t="n">
@@ -18472,7 +18472,7 @@
         <v>360</v>
       </c>
       <c r="D174" s="11">
-        <f>E174+F174</f>
+        <f>SUM($E174:$G174)</f>
         <v/>
       </c>
       <c r="E174" s="11" t="n">
@@ -18497,7 +18497,7 @@
         <v>362</v>
       </c>
       <c r="D175" s="11">
-        <f>E175+F175</f>
+        <f>SUM($E175:$G175)</f>
         <v/>
       </c>
       <c r="E175" s="11" t="n">
@@ -18522,7 +18522,7 @@
         <v>364</v>
       </c>
       <c r="D176" s="11">
-        <f>E176+F176</f>
+        <f>SUM($E176:$G176)</f>
         <v/>
       </c>
       <c r="E176" s="11" t="n">
@@ -18547,7 +18547,7 @@
         <v>366</v>
       </c>
       <c r="D177" s="11">
-        <f>E177+F177</f>
+        <f>SUM($E177:$G177)</f>
         <v/>
       </c>
       <c r="E177" s="11" t="n">
@@ -18572,7 +18572,7 @@
         <v>368</v>
       </c>
       <c r="D178" s="11">
-        <f>E178+F178</f>
+        <f>SUM($E178:$G178)</f>
         <v/>
       </c>
       <c r="E178" s="11" t="n">
@@ -18597,7 +18597,7 @@
         <v>370</v>
       </c>
       <c r="D179" s="11">
-        <f>E179+F179</f>
+        <f>SUM($E179:$G179)</f>
         <v/>
       </c>
       <c r="E179" s="11" t="n">
@@ -18622,7 +18622,7 @@
         <v>372</v>
       </c>
       <c r="D180" s="11">
-        <f>E180+F180</f>
+        <f>SUM($E180:$G180)</f>
         <v/>
       </c>
       <c r="E180" s="11" t="n">
@@ -18647,7 +18647,7 @@
         <v>374</v>
       </c>
       <c r="D181" s="11">
-        <f>E181+F181</f>
+        <f>SUM($E181:$G181)</f>
         <v/>
       </c>
       <c r="E181" s="11" t="n">
@@ -18672,7 +18672,7 @@
         <v>376</v>
       </c>
       <c r="D182" s="11">
-        <f>E182+F182</f>
+        <f>SUM($E182:$G182)</f>
         <v/>
       </c>
       <c r="E182" s="11" t="n">
@@ -18697,7 +18697,7 @@
         <v>378</v>
       </c>
       <c r="D183" s="11">
-        <f>E183+F183</f>
+        <f>SUM($E183:$G183)</f>
         <v/>
       </c>
       <c r="E183" s="11" t="n">
@@ -18722,7 +18722,7 @@
         <v>380</v>
       </c>
       <c r="D184" s="11">
-        <f>E184+F184</f>
+        <f>SUM($E184:$G184)</f>
         <v/>
       </c>
       <c r="E184" s="11" t="n">
@@ -18747,7 +18747,7 @@
         <v>382</v>
       </c>
       <c r="D185" s="11">
-        <f>E185+F185</f>
+        <f>SUM($E185:$G185)</f>
         <v/>
       </c>
       <c r="E185" s="11" t="n">
@@ -18772,7 +18772,7 @@
         <v>384</v>
       </c>
       <c r="D186" s="11">
-        <f>E186+F186</f>
+        <f>SUM($E186:$G186)</f>
         <v/>
       </c>
       <c r="E186" s="11" t="n">
@@ -18797,7 +18797,7 @@
         <v>386</v>
       </c>
       <c r="D187" s="11">
-        <f>E187+F187</f>
+        <f>SUM($E187:$G187)</f>
         <v/>
       </c>
       <c r="E187" s="11" t="n">
@@ -18822,7 +18822,7 @@
         <v>388</v>
       </c>
       <c r="D188" s="11">
-        <f>E188+F188</f>
+        <f>SUM($E188:$G188)</f>
         <v/>
       </c>
       <c r="E188" s="11" t="n">
@@ -18847,7 +18847,7 @@
         <v>390</v>
       </c>
       <c r="D189" s="11">
-        <f>E189+F189</f>
+        <f>SUM($E189:$G189)</f>
         <v/>
       </c>
       <c r="E189" s="11" t="n">
@@ -18872,7 +18872,7 @@
         <v>392</v>
       </c>
       <c r="D190" s="11">
-        <f>E190+F190</f>
+        <f>SUM($E190:$G190)</f>
         <v/>
       </c>
       <c r="E190" s="11" t="n">
@@ -18897,7 +18897,7 @@
         <v>394</v>
       </c>
       <c r="D191" s="11">
-        <f>E191+F191</f>
+        <f>SUM($E191:$G191)</f>
         <v/>
       </c>
       <c r="E191" s="11" t="n">
@@ -18922,7 +18922,7 @@
         <v>396</v>
       </c>
       <c r="D192" s="11">
-        <f>E192+F192</f>
+        <f>SUM($E192:$G192)</f>
         <v/>
       </c>
       <c r="E192" s="11" t="n">
@@ -18947,7 +18947,7 @@
         <v>398</v>
       </c>
       <c r="D193" s="11">
-        <f>E193+F193</f>
+        <f>SUM($E193:$G193)</f>
         <v/>
       </c>
       <c r="E193" s="11" t="n">
@@ -18972,7 +18972,7 @@
         <v>400</v>
       </c>
       <c r="D194" s="11">
-        <f>E194+F194</f>
+        <f>SUM($E194:$G194)</f>
         <v/>
       </c>
       <c r="E194" s="11" t="n">
@@ -18997,7 +18997,7 @@
         <v>402</v>
       </c>
       <c r="D195" s="11">
-        <f>E195+F195</f>
+        <f>SUM($E195:$G195)</f>
         <v/>
       </c>
       <c r="E195" s="11" t="n">
@@ -19022,7 +19022,7 @@
         <v>404</v>
       </c>
       <c r="D196" s="11">
-        <f>E196+F196</f>
+        <f>SUM($E196:$G196)</f>
         <v/>
       </c>
       <c r="E196" s="11" t="n">
@@ -19047,7 +19047,7 @@
         <v>104</v>
       </c>
       <c r="D197" s="11">
-        <f>E197+F197</f>
+        <f>SUM($E197:$G197)</f>
         <v/>
       </c>
       <c r="E197" s="11" t="n">
@@ -19072,7 +19072,7 @@
         <v>407</v>
       </c>
       <c r="D198" s="11">
-        <f>E198+F198</f>
+        <f>SUM($E198:$G198)</f>
         <v/>
       </c>
       <c r="E198" s="11" t="n">
@@ -19097,7 +19097,7 @@
         <v>409</v>
       </c>
       <c r="D199" s="11">
-        <f>E199+F199</f>
+        <f>SUM($E199:$G199)</f>
         <v/>
       </c>
       <c r="E199" s="11" t="n">
@@ -19122,7 +19122,7 @@
         <v>411</v>
       </c>
       <c r="D200" s="11">
-        <f>E200+F200</f>
+        <f>SUM($E200:$G200)</f>
         <v/>
       </c>
       <c r="E200" s="11" t="n">
@@ -19147,7 +19147,7 @@
         <v>413</v>
       </c>
       <c r="D201" s="11">
-        <f>E201+F201</f>
+        <f>SUM($E201:$G201)</f>
         <v/>
       </c>
       <c r="E201" s="11" t="n">
@@ -19172,7 +19172,7 @@
         <v>415</v>
       </c>
       <c r="D202" s="11">
-        <f>E202+F202</f>
+        <f>SUM($E202:$G202)</f>
         <v/>
       </c>
       <c r="E202" s="11" t="n">
@@ -19197,7 +19197,7 @@
         <v>417</v>
       </c>
       <c r="D203" s="11">
-        <f>E203+F203</f>
+        <f>SUM($E203:$G203)</f>
         <v/>
       </c>
       <c r="E203" s="11" t="n">
@@ -19222,7 +19222,7 @@
         <v>108</v>
       </c>
       <c r="D204" s="11">
-        <f>E204+F204</f>
+        <f>SUM($E204:$G204)</f>
         <v/>
       </c>
       <c r="E204" s="11" t="n">
@@ -19247,7 +19247,7 @@
         <v>420</v>
       </c>
       <c r="D205" s="11">
-        <f>E205+F205</f>
+        <f>SUM($E205:$G205)</f>
         <v/>
       </c>
       <c r="E205" s="11" t="n">
@@ -19272,7 +19272,7 @@
         <v>422</v>
       </c>
       <c r="D206" s="11">
-        <f>E206+F206</f>
+        <f>SUM($E206:$G206)</f>
         <v/>
       </c>
       <c r="E206" s="11" t="n">
@@ -19297,7 +19297,7 @@
         <v>424</v>
       </c>
       <c r="D207" s="11">
-        <f>E207+F207</f>
+        <f>SUM($E207:$G207)</f>
         <v/>
       </c>
       <c r="E207" s="11" t="n">
@@ -19322,7 +19322,7 @@
         <v>426</v>
       </c>
       <c r="D208" s="11">
-        <f>E208+F208</f>
+        <f>SUM($E208:$G208)</f>
         <v/>
       </c>
       <c r="E208" s="11" t="n">
@@ -19347,7 +19347,7 @@
         <v>428</v>
       </c>
       <c r="D209" s="11">
-        <f>E209+F209</f>
+        <f>SUM($E209:$G209)</f>
         <v/>
       </c>
       <c r="E209" s="11" t="n">
@@ -19372,7 +19372,7 @@
         <v>430</v>
       </c>
       <c r="D210" s="11">
-        <f>E210+F210</f>
+        <f>SUM($E210:$G210)</f>
         <v/>
       </c>
       <c r="E210" s="11" t="n">
@@ -19397,7 +19397,7 @@
         <v>432</v>
       </c>
       <c r="D211" s="11">
-        <f>E211+F211</f>
+        <f>SUM($E211:$G211)</f>
         <v/>
       </c>
       <c r="E211" s="11" t="n">
@@ -19422,7 +19422,7 @@
         <v>434</v>
       </c>
       <c r="D212" s="11">
-        <f>E212+F212</f>
+        <f>SUM($E212:$G212)</f>
         <v/>
       </c>
       <c r="E212" s="11" t="n">
@@ -19447,7 +19447,7 @@
         <v>436</v>
       </c>
       <c r="D213" s="11">
-        <f>E213+F213</f>
+        <f>SUM($E213:$G213)</f>
         <v/>
       </c>
       <c r="E213" s="11" t="n">
@@ -19472,7 +19472,7 @@
         <v>438</v>
       </c>
       <c r="D214" s="11">
-        <f>E214+F214</f>
+        <f>SUM($E214:$G214)</f>
         <v/>
       </c>
       <c r="E214" s="11" t="n">
@@ -19497,7 +19497,7 @@
         <v>440</v>
       </c>
       <c r="D215" s="11">
-        <f>E215+F215</f>
+        <f>SUM($E215:$G215)</f>
         <v/>
       </c>
       <c r="E215" s="11" t="n">
@@ -19522,7 +19522,7 @@
         <v>442</v>
       </c>
       <c r="D216" s="11">
-        <f>E216+F216</f>
+        <f>SUM($E216:$G216)</f>
         <v/>
       </c>
       <c r="E216" s="11" t="n">
@@ -19547,7 +19547,7 @@
         <v>444</v>
       </c>
       <c r="D217" s="11">
-        <f>E217+F217</f>
+        <f>SUM($E217:$G217)</f>
         <v/>
       </c>
       <c r="E217" s="11" t="n">
@@ -19572,7 +19572,7 @@
         <v>446</v>
       </c>
       <c r="D218" s="11">
-        <f>E218+F218</f>
+        <f>SUM($E218:$G218)</f>
         <v/>
       </c>
       <c r="E218" s="11" t="n">
@@ -19597,7 +19597,7 @@
         <v>448</v>
       </c>
       <c r="D219" s="11">
-        <f>E219+F219</f>
+        <f>SUM($E219:$G219)</f>
         <v/>
       </c>
       <c r="E219" s="11" t="n">
@@ -19622,7 +19622,7 @@
         <v>450</v>
       </c>
       <c r="D220" s="11">
-        <f>E220+F220</f>
+        <f>SUM($E220:$G220)</f>
         <v/>
       </c>
       <c r="E220" s="11" t="n">
@@ -19647,7 +19647,7 @@
         <v>452</v>
       </c>
       <c r="D221" s="11">
-        <f>E221+F221</f>
+        <f>SUM($E221:$G221)</f>
         <v/>
       </c>
       <c r="E221" s="11" t="n">
@@ -19672,7 +19672,7 @@
         <v>454</v>
       </c>
       <c r="D222" s="11">
-        <f>E222+F222</f>
+        <f>SUM($E222:$G222)</f>
         <v/>
       </c>
       <c r="E222" s="11" t="n">
@@ -19692,7 +19692,7 @@
         <v>455</v>
       </c>
       <c r="D223" s="18">
-        <f>SUM(D2:D222)</f>
+        <f>SUM($D2:$D222)</f>
         <v/>
       </c>
       <c r="E223" s="18">
